--- a/Files/Taakverdeling.xlsx
+++ b/Files/Taakverdeling.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cartm\Documents\MEGAsync\Eindopdracht\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cartm\Documents\GitHub\Cthulu\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFF0EAB-AC43-40C2-8938-1385A9F87252}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C36F284-9176-44E3-8972-46CFCB7254C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{36E388EF-A685-454C-9075-C70744ECFF3C}"/>
+    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{36E388EF-A685-454C-9075-C70744ECFF3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
   <si>
     <t>Taakverdeling</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>Bron:</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -600,7 +603,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,6 +759,9 @@
       <c r="A10" t="s">
         <v>46</v>
       </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
